--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -1363,6 +1363,9 @@
   </si>
   <si>
     <t>8.8.2018</t>
+  </si>
+  <si>
+    <t>9.8.2018</t>
   </si>
 </sst>
 </file>
@@ -10870,7 +10873,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11313,26 +11316,48 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="8">
+        <v>165000</v>
+      </c>
+      <c r="C10" s="8">
+        <v>269000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>139500</v>
+      </c>
+      <c r="E10" s="8">
+        <v>11200</v>
+      </c>
+      <c r="F10" s="8">
+        <v>128300</v>
+      </c>
+      <c r="G10" s="8">
+        <v>21000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>93500</v>
+      </c>
+      <c r="I10" s="8">
+        <v>15000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>336900</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
+      <c r="P10" s="71">
+        <v>8000</v>
+      </c>
       <c r="Q10" s="71"/>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-39200</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -11861,7 +11886,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="91">
         <f>SUM(R2:R32)</f>
-        <v>706250</v>
+        <v>667050</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -1366,6 +1366,9 @@
   </si>
   <si>
     <t>9.8.2018</t>
+  </si>
+  <si>
+    <t>10.8.2018</t>
   </si>
 </sst>
 </file>
@@ -9346,7 +9349,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -10873,7 +10876,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10887,7 +10890,8 @@
     <col min="8" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="17" width="9.7109375" customWidth="1"/>
+    <col min="15" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11361,26 +11365,52 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="8">
+        <v>150000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1904800</v>
+      </c>
+      <c r="D11" s="8">
+        <v>238500</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20250</v>
+      </c>
+      <c r="F11" s="8">
+        <v>218250</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1220300</v>
+      </c>
+      <c r="H11" s="8">
+        <v>221000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>225000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>338800</v>
+      </c>
+      <c r="K11" s="8">
+        <v>12000</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="71"/>
+      <c r="M11" s="71">
+        <v>10000</v>
+      </c>
       <c r="N11" s="71"/>
       <c r="O11" s="71"/>
       <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
+      <c r="Q11" s="71">
+        <v>1160500</v>
+      </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>315250</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -11886,7 +11916,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="91">
         <f>SUM(R2:R32)</f>
-        <v>667050</v>
+        <v>982300</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -1369,6 +1369,9 @@
   </si>
   <si>
     <t>10.8.2018</t>
+  </si>
+  <si>
+    <t>11.8.2018</t>
   </si>
 </sst>
 </file>
@@ -10875,8 +10878,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11414,17 +11417,31 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="8">
+        <v>637000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>231500</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="8">
+        <v>189000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42500</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="8">
+        <v>704300</v>
+      </c>
+      <c r="K12" s="8">
+        <v>122000</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
@@ -11433,7 +11450,7 @@
       <c r="Q12" s="71"/>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -11916,7 +11933,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="91">
         <f>SUM(R2:R32)</f>
-        <v>982300</v>
+        <v>1024500</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1785,7 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2048,6 +2048,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9352,7 +9353,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -10878,11 +10879,12 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -10898,7 +10900,7 @@
     <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10954,7 +10956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>109</v>
       </c>
@@ -10997,7 +10999,7 @@
         <v>-283950</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>110</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>-78850</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>111</v>
       </c>
@@ -11093,7 +11095,7 @@
         <v>1469650</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>113</v>
       </c>
@@ -11138,7 +11140,7 @@
         <v>-128050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>114</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>-153150</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>116</v>
       </c>
@@ -11230,7 +11232,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>117</v>
       </c>
@@ -11275,7 +11277,7 @@
         <v>-78350</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>118</v>
       </c>
@@ -11322,7 +11324,7 @@
         <v>-65350</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>119</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>-39200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>120</v>
       </c>
@@ -11416,7 +11418,7 @@
         <v>315250</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>121</v>
       </c>
@@ -11453,30 +11455,50 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
+    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>12</v>
+      </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="99"/>
+      <c r="C13" s="8">
+        <v>276000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>54500</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10950</v>
+      </c>
+      <c r="F13" s="8">
+        <v>43550</v>
+      </c>
+      <c r="G13" s="8">
+        <v>139000</v>
+      </c>
+      <c r="H13" s="99">
+        <v>82500</v>
+      </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="8">
+        <v>132900</v>
+      </c>
+      <c r="K13" s="8">
+        <v>75000</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="71"/>
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
       <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
+      <c r="Q13" s="71">
+        <v>33000</v>
+      </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>-8450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -11499,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -11522,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -11545,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -11568,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -11591,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11614,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -11637,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -11660,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -11683,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -11706,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -11729,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -11752,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -11775,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -11798,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -11821,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11844,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -11867,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -11890,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11913,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -11931,34 +11953,34 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="72"/>
-      <c r="R33" s="91">
+      <c r="R33" s="106">
         <f>SUM(R2:R32)</f>
-        <v>1024500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1016050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="92"/>
       <c r="R35" s="92"/>
       <c r="S35" s="92"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q36" s="92" t="s">
         <v>115</v>
       </c>
       <c r="R36" s="92"/>
       <c r="S36" s="92"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q37" s="92"/>
       <c r="R37" s="92">
         <v>50000</v>
       </c>
       <c r="S37" s="92"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="92"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>0</v>
       </c>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -2030,6 +2030,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2048,7 +2049,6 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2387,22 +2387,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3646,22 +3646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="101">
+      <c r="B1" s="102">
         <v>43132</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -9278,12 +9278,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9305,22 +9305,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="102">
+      <c r="B36" s="103">
         <v>2496038</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -10880,7 +10880,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -11953,7 +11953,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="72"/>
-      <c r="R33" s="106">
+      <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
         <v>1016050</v>
       </c>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -10880,8 +10880,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11499,26 +11499,50 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="74">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>521000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2650</v>
+      </c>
+      <c r="F14" s="8">
+        <v>54350</v>
+      </c>
+      <c r="G14" s="8">
+        <v>274000</v>
+      </c>
+      <c r="H14" s="99">
+        <v>70000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>120000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>425800</v>
+      </c>
+      <c r="K14" s="8">
+        <v>15000</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="71"/>
+      <c r="M14" s="71">
+        <v>43000</v>
+      </c>
       <c r="N14" s="71"/>
       <c r="O14" s="71"/>
       <c r="P14" s="71"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11955,7 +11979,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1016050</v>
+        <v>1048900</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -10881,7 +10881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11546,26 +11546,48 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="74">
+        <v>14</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="C15" s="8">
+        <v>208000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>79000</v>
+      </c>
+      <c r="E15" s="8">
+        <v>9250</v>
+      </c>
+      <c r="F15" s="8">
+        <v>69750</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>78000</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>185100</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="71"/>
+      <c r="M15" s="71">
+        <v>5000</v>
+      </c>
       <c r="N15" s="71"/>
       <c r="O15" s="71"/>
       <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="Q15" s="71">
+        <v>73000</v>
+      </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-124850</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11979,7 +12001,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1048900</v>
+        <v>924050</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1140" windowWidth="18195" windowHeight="9570" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="9510" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2018" sheetId="1" r:id="rId1"/>
@@ -10880,8 +10880,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11583,34 +11583,60 @@
       <c r="O15" s="71"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="71">
-        <v>73000</v>
+        <v>25000</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>-124850</v>
+        <v>-76850</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="74">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>501500</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1469500</v>
+      </c>
+      <c r="D16" s="8">
+        <v>212500</v>
+      </c>
+      <c r="E16" s="8">
+        <v>29350</v>
+      </c>
+      <c r="F16" s="8">
+        <v>183150</v>
+      </c>
+      <c r="G16" s="8">
+        <v>669000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>385000</v>
+      </c>
+      <c r="I16" s="8">
+        <v>203000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>198300</v>
+      </c>
+      <c r="K16" s="8">
+        <v>130000</v>
+      </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="71"/>
+      <c r="M16" s="71">
+        <v>290000</v>
+      </c>
       <c r="N16" s="71"/>
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
+      <c r="Q16" s="71">
+        <v>422000</v>
+      </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>747550</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12001,7 +12027,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>924050</v>
+        <v>1719600</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -1372,6 +1372,18 @@
   </si>
   <si>
     <t>11.8.2018</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo -50000</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo-50000</t>
+  </si>
+  <si>
+    <t>Ko Pyone      -1000000</t>
+  </si>
+  <si>
+    <t>15.8.2018</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2049,6 +2061,8 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -10880,8 +10894,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12039,18 +12053,32 @@
       <c r="Q36" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="92"/>
+      <c r="R36" s="107"/>
       <c r="S36" s="92"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92">
-        <v>50000</v>
+      <c r="Q37" s="92" t="s">
+        <v>122</v>
       </c>
       <c r="S37" s="92"/>
     </row>
+    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q38" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="107"/>
+    </row>
     <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q39" s="92"/>
+      <c r="P39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="R39" s="108"/>
     </row>
     <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42">
@@ -12059,6 +12087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -2043,6 +2043,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2061,8 +2063,6 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2401,22 +2401,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3660,22 +3660,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="102">
+      <c r="B1" s="104">
         <v>43132</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -9292,12 +9292,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9319,22 +9319,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="108"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="103">
+      <c r="B36" s="105">
         <v>2496038</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -9367,7 +9367,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -10894,8 +10894,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11541,10 +11541,10 @@
         <v>120000</v>
       </c>
       <c r="J14" s="8">
-        <v>425800</v>
+        <v>436800</v>
       </c>
       <c r="K14" s="8">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="71">
@@ -11654,16 +11654,36 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A17" s="74">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>413000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>175500</v>
+      </c>
+      <c r="D17" s="8">
+        <v>53500</v>
+      </c>
+      <c r="E17" s="8">
+        <v>8400</v>
+      </c>
+      <c r="F17" s="8">
+        <v>45100</v>
+      </c>
+      <c r="G17" s="8">
+        <v>29000</v>
+      </c>
+      <c r="H17" s="8">
+        <v>63000</v>
+      </c>
+      <c r="I17" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J17" s="8">
+        <v>223400</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="71"/>
@@ -11673,7 +11693,7 @@
       <c r="Q17" s="71"/>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12041,7 +12061,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1719600</v>
+        <v>2039600</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12053,7 +12073,7 @@
       <c r="Q36" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="107"/>
+      <c r="R36" s="101"/>
       <c r="S36" s="92"/>
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12069,7 +12089,7 @@
       <c r="Q38" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="R38" s="107"/>
+      <c r="R38" s="101"/>
     </row>
     <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
@@ -12078,7 +12098,7 @@
       <c r="Q39" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="R39" s="108"/>
+      <c r="R39" s="102"/>
     </row>
     <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -10894,8 +10894,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11697,26 +11697,50 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="A18" s="74">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>97000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>525000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>212500</v>
+      </c>
+      <c r="E18" s="8">
+        <v>26350</v>
+      </c>
+      <c r="F18" s="8">
+        <v>186150</v>
+      </c>
+      <c r="G18" s="8">
+        <v>216000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>91500</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="8">
+        <v>429050</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
+      <c r="N18" s="71">
+        <v>184000</v>
+      </c>
+      <c r="O18" s="71">
+        <v>3500</v>
+      </c>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-180700</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12061,7 +12085,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>2039600</v>
+        <v>1858900</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -10894,8 +10894,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11744,49 +11744,93 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="74">
+        <v>18</v>
+      </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="C19" s="8">
+        <v>614500</v>
+      </c>
+      <c r="D19" s="8">
+        <v>142000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9700</v>
+      </c>
+      <c r="F19" s="8">
+        <v>132300</v>
+      </c>
+      <c r="G19" s="8">
+        <v>278000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>164500</v>
+      </c>
+      <c r="I19" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J19" s="8">
+        <v>254350</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5000</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="71"/>
       <c r="N19" s="71"/>
       <c r="O19" s="71"/>
       <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
+      <c r="Q19" s="71">
+        <v>14000</v>
+      </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>208850</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="74">
+        <v>19</v>
+      </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="8">
+        <v>420500</v>
+      </c>
+      <c r="D20" s="8">
+        <v>139000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>21900</v>
+      </c>
+      <c r="F20" s="8">
+        <v>117100</v>
+      </c>
+      <c r="G20" s="8">
+        <v>73000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>58500</v>
+      </c>
+      <c r="I20" s="8">
+        <v>150000</v>
+      </c>
+      <c r="J20" s="8">
+        <v>366500</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="71"/>
       <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
+      <c r="O20" s="71">
+        <v>16500</v>
+      </c>
       <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="Q20" s="71">
+        <v>125000</v>
+      </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-204600</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12085,7 +12129,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1858900</v>
+        <v>1863150</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -1384,6 +1384,9 @@
   </si>
   <si>
     <t>15.8.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko Nway Oo- 100000 </t>
   </si>
 </sst>
 </file>
@@ -10894,8 +10897,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11834,49 +11837,101 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="74">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>147000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>856500</v>
+      </c>
+      <c r="D21" s="8">
+        <v>270500</v>
+      </c>
+      <c r="E21" s="8">
+        <v>23000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>247500</v>
+      </c>
+      <c r="G21" s="8">
+        <v>172000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>129000</v>
+      </c>
+      <c r="I21" s="8">
+        <v>285000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>436500</v>
+      </c>
+      <c r="K21" s="8">
+        <v>68000</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="71"/>
+      <c r="M21" s="71">
+        <v>95000</v>
+      </c>
       <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
+      <c r="O21" s="71">
+        <v>310000</v>
+      </c>
       <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="Q21" s="71">
+        <v>81500</v>
+      </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-235000</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="74">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>125000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1015500</v>
+      </c>
+      <c r="D22" s="8">
+        <v>234500</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44950</v>
+      </c>
+      <c r="F22" s="8">
+        <v>189550</v>
+      </c>
+      <c r="G22" s="8">
+        <v>361000</v>
+      </c>
+      <c r="H22" s="8">
+        <v>235000</v>
+      </c>
+      <c r="I22" s="8">
+        <v>185000</v>
+      </c>
+      <c r="J22" s="8">
+        <v>171200</v>
+      </c>
+      <c r="K22" s="8">
+        <v>60000</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="71"/>
       <c r="N22" s="71"/>
       <c r="O22" s="71"/>
       <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="Q22" s="71">
+        <v>27500</v>
+      </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>692250</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12129,11 +12184,13 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1863150</v>
+        <v>2320400</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q35" s="92"/>
+      <c r="Q35" s="92" t="s">
+        <v>126</v>
+      </c>
       <c r="R35" s="92"/>
       <c r="S35" s="92"/>
     </row>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -1366,12 +1366,6 @@
   </si>
   <si>
     <t>9.8.2018</t>
-  </si>
-  <si>
-    <t>10.8.2018</t>
-  </si>
-  <si>
-    <t>11.8.2018</t>
   </si>
   <si>
     <t>Ko Nway Oo -50000</t>
@@ -1800,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2065,6 +2059,9 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10897,13 +10894,13 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
@@ -10974,7 +10971,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="8"/>
@@ -11017,7 +11014,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="8"/>
@@ -11068,7 +11065,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="8">
@@ -11113,7 +11110,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="109" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="71"/>
@@ -11158,7 +11155,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="8"/>
@@ -11203,7 +11200,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>116</v>
       </c>
       <c r="B7" s="8">
@@ -11250,7 +11247,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="8">
@@ -11295,7 +11292,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="8"/>
@@ -11342,7 +11339,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="8">
@@ -11387,8 +11384,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>120</v>
+      <c r="A11" s="74">
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>150000</v>
@@ -11436,8 +11433,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>121</v>
+      <c r="A12" s="74">
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>637000</v>
@@ -11916,7 +11913,7 @@
         <v>185000</v>
       </c>
       <c r="J22" s="8">
-        <v>171200</v>
+        <v>174200</v>
       </c>
       <c r="K22" s="8">
         <v>60000</v>
@@ -11927,11 +11924,11 @@
       <c r="O22" s="71"/>
       <c r="P22" s="71"/>
       <c r="Q22" s="71">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>692250</v>
+        <v>684250</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11951,11 +11948,10 @@
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
       <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Q23" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
@@ -12184,12 +12180,12 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>2320400</v>
+        <v>2312400</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R35" s="92"/>
       <c r="S35" s="92"/>
@@ -12203,25 +12199,25 @@
     </row>
     <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q37" s="92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S37" s="92"/>
     </row>
     <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R38" s="101"/>
     </row>
     <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R39" s="102"/>
     </row>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -1381,6 +1381,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ko Nway Oo- 100000 </t>
+  </si>
+  <si>
+    <t>22.8.2018</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,6 +2045,12 @@
     <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,9 +2068,6 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2401,22 +2407,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3660,22 +3666,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="104">
+      <c r="B1" s="106">
         <v>43132</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -9292,12 +9298,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="106" t="s">
+      <c r="B33" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9319,22 +9325,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="110"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="105">
+      <c r="B36" s="107">
         <v>2496038</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -10891,11 +10897,11 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10910,7 +10916,7 @@
     <col min="12" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11060,7 +11066,7 @@
         <v>112500</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R32" si="0">B3+C3-F3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
+        <f t="shared" ref="R3:R31" si="0">B3+C3-F3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
         <v>-78850</v>
       </c>
     </row>
@@ -11110,7 +11116,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="103" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="71"/>
@@ -11932,26 +11938,49 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="74">
+        <v>22</v>
+      </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="8">
+        <v>865500</v>
+      </c>
+      <c r="D23" s="8">
+        <v>29000</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4800</v>
+      </c>
+      <c r="F23" s="8">
+        <v>24200</v>
+      </c>
+      <c r="G23" s="8">
+        <v>122000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>64500</v>
+      </c>
+      <c r="I23" s="8">
+        <v>650000</v>
+      </c>
+      <c r="J23" s="8">
+        <v>216800</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="71"/>
+      <c r="M23" s="71">
+        <v>32000</v>
+      </c>
       <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
+      <c r="O23" s="71">
+        <v>579500</v>
+      </c>
       <c r="P23" s="71"/>
-      <c r="Q23" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="8">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74"/>
@@ -12014,9 +12043,9 @@
       <c r="L26" s="8"/>
       <c r="M26" s="71"/>
       <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12035,11 +12064,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12138,91 +12167,79 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="100">
-        <f>SUM(R2:R32)</f>
-        <v>2312400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="100">
+        <f>SUM(R2:R31)</f>
+        <v>2325400</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+    </row>
+    <row r="35" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="R35" s="92"/>
+        <v>115</v>
+      </c>
+      <c r="R35" s="101"/>
       <c r="S35" s="92"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q36" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="R36" s="101"/>
+        <v>120</v>
+      </c>
       <c r="S36" s="92"/>
     </row>
-    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>123</v>
+      </c>
       <c r="Q37" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="S37" s="92"/>
-    </row>
-    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="R37" s="101"/>
+    </row>
+    <row r="38" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
         <v>123</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="R38" s="101"/>
-    </row>
-    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="R38" s="102"/>
+    </row>
+    <row r="39" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="R39" s="102"/>
-    </row>
-    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42">
+      <c r="R39" s="104">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41">
         <v>0</v>
       </c>
     </row>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -10900,8 +10900,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11983,26 +11983,50 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="74">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>270500</v>
+      </c>
+      <c r="C24" s="8">
+        <v>367000</v>
+      </c>
+      <c r="D24" s="8">
+        <v>142000</v>
+      </c>
+      <c r="E24" s="8">
+        <v>24150</v>
+      </c>
+      <c r="F24" s="8">
+        <v>117850</v>
+      </c>
+      <c r="G24" s="8">
+        <v>132000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>93000</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="8">
+        <v>251100</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3000</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="71"/>
       <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
+      <c r="O24" s="71">
+        <v>88000</v>
+      </c>
       <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="Q24" s="71">
+        <v>50000</v>
+      </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127550</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12186,7 +12210,7 @@
       <c r="Q32" s="72"/>
       <c r="R32" s="100">
         <f>SUM(R2:R31)</f>
-        <v>2325400</v>
+        <v>2452950</v>
       </c>
     </row>
     <row r="34" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -10900,8 +10900,8 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12030,49 +12030,101 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="71"/>
+      <c r="A25" s="74">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>580000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>359500</v>
+      </c>
+      <c r="D25" s="8">
+        <v>99000</v>
+      </c>
+      <c r="E25" s="8">
+        <v>18500</v>
+      </c>
+      <c r="F25" s="8">
+        <v>80500</v>
+      </c>
+      <c r="G25" s="8">
+        <v>132000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>83500</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45000</v>
+      </c>
+      <c r="J25" s="8">
+        <v>301400</v>
+      </c>
+      <c r="K25" s="8">
+        <v>29000</v>
+      </c>
+      <c r="L25" s="8">
+        <v>36000</v>
+      </c>
+      <c r="M25" s="71">
+        <v>194000</v>
+      </c>
       <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
+      <c r="O25" s="71">
+        <v>60000</v>
+      </c>
       <c r="P25" s="71"/>
       <c r="Q25" s="71"/>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>238600</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="74">
+        <v>25</v>
+      </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="C26" s="8">
+        <v>618500</v>
+      </c>
+      <c r="D26" s="8">
+        <v>186000</v>
+      </c>
+      <c r="E26" s="8">
+        <v>36850</v>
+      </c>
+      <c r="F26" s="8">
+        <v>149150</v>
+      </c>
+      <c r="G26" s="8">
+        <v>354000</v>
+      </c>
+      <c r="H26" s="8">
+        <v>78500</v>
+      </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="J26" s="8">
+        <v>536700</v>
+      </c>
+      <c r="K26" s="8">
+        <v>50000</v>
+      </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
+      <c r="M26" s="71">
+        <v>104000</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>46</v>
+      </c>
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Q26" s="73">
+        <v>45500</v>
+      </c>
+      <c r="R26" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12208,9 +12260,9 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="72"/>
-      <c r="R32" s="100">
+      <c r="R32" s="100" t="e">
         <f>SUM(R2:R31)</f>
-        <v>2452950</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -1384,6 +1384,21 @@
   </si>
   <si>
     <t>22.8.2018</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo-50000 27/8</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo-600000</t>
+  </si>
+  <si>
+    <t>29.8.2018</t>
+  </si>
+  <si>
+    <t>30.8.2018</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo-500000</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1411,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,6 +1690,11 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1797,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2050,6 +2070,9 @@
     </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2407,22 +2430,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3666,22 +3689,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="106">
+      <c r="B1" s="107">
         <v>43132</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -8006,7 +8029,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -9298,12 +9321,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="111"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9325,22 +9348,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="111"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="107">
+      <c r="B36" s="108">
         <v>2496038</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -9373,8 +9396,8 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,11 +10920,11 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10912,12 +10935,15 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="11" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="13" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11066,7 +11092,7 @@
         <v>112500</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R31" si="0">B3+C3-F3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
+        <f t="shared" ref="R3:R32" si="0">B3+C3-F3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
         <v>-78850</v>
       </c>
     </row>
@@ -12084,7 +12110,9 @@
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
       <c r="C26" s="8">
         <v>618500</v>
       </c>
@@ -12103,111 +12131,207 @@
       <c r="H26" s="8">
         <v>78500</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
       <c r="J26" s="8">
         <v>536700</v>
       </c>
       <c r="K26" s="8">
         <v>50000</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
       <c r="M26" s="71">
         <v>104000</v>
       </c>
-      <c r="N26" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73">
+      <c r="N26" s="71">
+        <v>0</v>
+      </c>
+      <c r="O26" s="73">
+        <v>0</v>
+      </c>
+      <c r="P26" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="105">
         <v>45500</v>
       </c>
-      <c r="R26" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="R26" s="8">
+        <f t="shared" si="0"/>
+        <v>-266850</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="74">
+        <v>26</v>
+      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="C27" s="8">
+        <v>426000</v>
+      </c>
+      <c r="D27" s="8">
+        <v>128000</v>
+      </c>
+      <c r="E27" s="8">
+        <v>29850</v>
+      </c>
+      <c r="F27" s="8">
+        <v>98150</v>
+      </c>
+      <c r="G27" s="8">
+        <v>151500</v>
+      </c>
+      <c r="H27" s="8">
+        <v>146500</v>
+      </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <v>235100</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="8">
+        <v>58000</v>
+      </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34750</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="74">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>229000</v>
+      </c>
+      <c r="C28" s="8">
+        <v>480500</v>
+      </c>
+      <c r="D28" s="8">
+        <v>56000</v>
+      </c>
+      <c r="E28" s="8">
+        <v>6500</v>
+      </c>
+      <c r="F28" s="8">
+        <v>49500</v>
+      </c>
+      <c r="G28" s="8">
+        <v>151500</v>
+      </c>
+      <c r="H28" s="8">
+        <v>73000</v>
+      </c>
+      <c r="I28" s="8">
+        <v>200000</v>
+      </c>
+      <c r="J28" s="8">
+        <v>193050</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="8">
+        <v>149000</v>
+      </c>
       <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="8">
+        <v>52000</v>
+      </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>265950</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="74">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>547000</v>
+      </c>
+      <c r="C29" s="8">
+        <v>559500</v>
+      </c>
+      <c r="D29" s="8">
+        <v>177500</v>
+      </c>
+      <c r="E29" s="8">
+        <v>24450</v>
+      </c>
+      <c r="F29" s="8">
+        <v>153050</v>
+      </c>
+      <c r="G29" s="8">
+        <v>210000</v>
+      </c>
+      <c r="H29" s="8">
+        <v>102000</v>
+      </c>
+      <c r="I29" s="8">
+        <v>70000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>532000</v>
+      </c>
+      <c r="K29" s="8">
+        <v>10000</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="8">
+        <v>41000</v>
+      </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>370450</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="74">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>95500</v>
+      </c>
+      <c r="C30" s="8">
+        <v>574500</v>
+      </c>
+      <c r="D30" s="8">
+        <v>87000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>11500</v>
+      </c>
+      <c r="F30" s="8">
+        <v>75500</v>
+      </c>
+      <c r="G30" s="8">
+        <v>353500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>103500</v>
+      </c>
+      <c r="I30" s="8">
+        <v>201000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>365500</v>
+      </c>
+      <c r="K30" s="8">
+        <v>8000</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -12216,107 +12340,174 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>221000</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
+      <c r="A31" s="74">
+        <v>30</v>
+      </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="C31" s="8">
+        <v>795000</v>
+      </c>
+      <c r="D31" s="8">
+        <v>112500</v>
+      </c>
+      <c r="E31" s="8">
+        <v>12500</v>
+      </c>
+      <c r="F31" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="8">
+        <v>463000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>213500</v>
+      </c>
+      <c r="I31" s="8">
+        <v>6000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>183200</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1500</v>
+      </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="8">
+        <v>14000</v>
+      </c>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="8">
+        <v>170500</v>
+      </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
+        <v>325800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="100" t="e">
-        <f>SUM(R2:R31)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="100">
+        <f>SUM(R2:R32)</f>
+        <v>3642650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q34" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="R34" s="92"/>
+    </row>
+    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-    </row>
-    <row r="35" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q35" s="92" t="s">
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="R35" s="101"/>
-      <c r="S35" s="92"/>
-    </row>
-    <row r="36" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="92" t="s">
+      <c r="R36" s="101"/>
+      <c r="S36" s="92"/>
+    </row>
+    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="92"/>
-    </row>
-    <row r="37" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P37" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q37" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="R37" s="101"/>
-    </row>
-    <row r="38" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="92"/>
+    </row>
+    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
         <v>123</v>
       </c>
       <c r="Q38" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="R38" s="102"/>
-    </row>
-    <row r="39" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="R38" s="101"/>
+    </row>
+    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="R39" s="104">
+      <c r="R39" s="102"/>
+    </row>
+    <row r="40" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="104">
         <v>500000</v>
       </c>
     </row>
-    <row r="41" spans="6:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41">
+    <row r="41" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41" s="92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42">
         <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" s="92" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1200" windowWidth="18195" windowHeight="9510" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="1260" windowWidth="18195" windowHeight="9450" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2018" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -1400,6 +1400,15 @@
   <si>
     <t>Ko Nway Oo-500000</t>
   </si>
+  <si>
+    <t>31.8.2018   Ko Zin Min    -300000</t>
+  </si>
+  <si>
+    <t>1.9.2018</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo-979500(3/9/18)</t>
+  </si>
 </sst>
 </file>
 
@@ -1411,7 +1420,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1695,6 +1704,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1817,7 +1841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2072,6 +2096,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="42" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2430,22 +2461,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3689,22 +3720,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="107">
+      <c r="B1" s="110">
         <v>43132</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -9321,12 +9352,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9348,22 +9379,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="108">
+      <c r="B36" s="111">
         <v>2496038</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -9396,7 +9427,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -10920,11 +10951,11 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12382,16 +12413,1094 @@
         <v>14000</v>
       </c>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8">
-        <v>170500</v>
-      </c>
+      <c r="Q31" s="8"/>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>325800</v>
+        <v>496300</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
+      <c r="A32" s="74">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>450000</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1811000</v>
+      </c>
+      <c r="D32" s="8">
+        <v>337000</v>
+      </c>
+      <c r="E32" s="8">
+        <v>51500</v>
+      </c>
+      <c r="F32" s="8">
+        <v>285500</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1004500</v>
+      </c>
+      <c r="H32" s="8">
+        <v>289500</v>
+      </c>
+      <c r="I32" s="8">
+        <v>180000</v>
+      </c>
+      <c r="J32" s="8">
+        <v>481550</v>
+      </c>
+      <c r="K32" s="8">
+        <v>51000</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
+        <v>993500</v>
+      </c>
+      <c r="R32" s="8">
+        <f t="shared" si="0"/>
+        <v>449450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="106">
+        <f>SUM(I3:I32)</f>
+        <v>2849000</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="6">
+        <f>SUM(K4:K32)</f>
+        <v>856500</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="100">
+        <f>SUM(R2:R32)</f>
+        <v>4262600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="R34" s="92"/>
+    </row>
+    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" s="101"/>
+      <c r="S36" s="92"/>
+    </row>
+    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="S37" s="92"/>
+    </row>
+    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q38" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="R38" s="101"/>
+    </row>
+    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="R39" s="102"/>
+    </row>
+    <row r="40" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="104">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41" s="92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" s="92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="8">
+        <v>440000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>245500</v>
+      </c>
+      <c r="D2" s="8">
+        <v>68500</v>
+      </c>
+      <c r="E2" s="8">
+        <v>14500</v>
+      </c>
+      <c r="F2" s="8">
+        <v>54000</v>
+      </c>
+      <c r="G2" s="8">
+        <v>84000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>30000</v>
+      </c>
+      <c r="I2" s="8">
+        <v>63000</v>
+      </c>
+      <c r="J2" s="8">
+        <v>305900</v>
+      </c>
+      <c r="K2" s="8">
+        <v>35000</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71">
+        <v>45000</v>
+      </c>
+      <c r="R2" s="8">
+        <f>B2+C2-F2-J2-K2-L2-M2-N2-O2-P2-Q2</f>
+        <v>245600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
+        <v>592000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>122000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9850</v>
+      </c>
+      <c r="F3" s="8">
+        <v>112150</v>
+      </c>
+      <c r="G3" s="8">
+        <v>183000</v>
+      </c>
+      <c r="H3" s="8">
+        <v>177000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>110000</v>
+      </c>
+      <c r="J3" s="8">
+        <v>482850</v>
+      </c>
+      <c r="K3" s="8">
+        <v>28000</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R32" si="0">B3+C3-F3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
+        <v>-31000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>979500</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1611500</v>
+      </c>
+      <c r="D4" s="8">
+        <v>191000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>28250</v>
+      </c>
+      <c r="F4" s="8">
+        <v>162750</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1159500</v>
+      </c>
+      <c r="H4" s="8">
+        <v>253000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>8000</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1088100</v>
+      </c>
+      <c r="K4" s="8">
+        <v>73000</v>
+      </c>
+      <c r="L4" s="8">
+        <v>47000</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="71">
+        <v>360500</v>
+      </c>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="8">
+        <f t="shared" si="0"/>
+        <v>859650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="103">
+        <v>4</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71">
+        <v>421500</v>
+      </c>
+      <c r="D5" s="71">
+        <v>94500</v>
+      </c>
+      <c r="E5" s="71">
+        <v>11500</v>
+      </c>
+      <c r="F5" s="71">
+        <v>83000</v>
+      </c>
+      <c r="G5" s="71">
+        <v>209000</v>
+      </c>
+      <c r="H5" s="71">
+        <v>98000</v>
+      </c>
+      <c r="I5" s="71">
+        <v>20000</v>
+      </c>
+      <c r="J5" s="71">
+        <v>334050</v>
+      </c>
+      <c r="K5" s="71">
+        <v>74000</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="8">
+        <f t="shared" si="0"/>
+        <v>-69550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>31</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -12413,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -12422,7 +13531,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="106"/>
       <c r="J33" s="3"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -12433,97 +13542,52 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>3642650</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q34" s="92" t="s">
-        <v>126</v>
-      </c>
+        <v>1004700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="92"/>
       <c r="R34" s="92"/>
     </row>
-    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q35" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-    </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="92" t="s">
-        <v>115</v>
-      </c>
+    <row r="35" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="107"/>
+      <c r="S35" s="108"/>
+    </row>
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="92"/>
       <c r="R36" s="101"/>
       <c r="S36" s="92"/>
     </row>
-    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q37" s="92" t="s">
-        <v>120</v>
-      </c>
+    <row r="37" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="92"/>
       <c r="S37" s="92"/>
     </row>
-    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q38" s="92" t="s">
-        <v>121</v>
-      </c>
+    <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="92"/>
       <c r="R38" s="101"/>
     </row>
-    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P39" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q39" s="92" t="s">
-        <v>122</v>
-      </c>
+    <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="92"/>
       <c r="R39" s="102"/>
     </row>
-    <row r="40" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P40" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q40" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="R40" s="104">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q41" s="92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q42" s="92" t="s">
-        <v>130</v>
-      </c>
+    <row r="40" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="92"/>
+      <c r="R40" s="104"/>
+    </row>
+    <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="92"/>
+    </row>
+    <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="92"/>
+    </row>
+    <row r="43" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -12587,8 +12587,8 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12852,49 +12852,89 @@
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="8">
+        <v>724000</v>
+      </c>
+      <c r="D6" s="8">
+        <v>173000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17900</v>
+      </c>
+      <c r="F6" s="8">
+        <v>155100</v>
+      </c>
+      <c r="G6" s="8">
+        <v>405500</v>
+      </c>
+      <c r="H6" s="8">
+        <v>145500</v>
+      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>377300</v>
+      </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>62000</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="71"/>
       <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
+      <c r="Q6" s="71">
+        <v>50000</v>
+      </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79600</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="8">
+        <v>622000</v>
+      </c>
+      <c r="C7" s="8">
+        <v>484800</v>
+      </c>
+      <c r="D7" s="8">
+        <v>203000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>22500</v>
+      </c>
+      <c r="F7" s="8">
+        <v>180500</v>
+      </c>
+      <c r="G7" s="8">
+        <v>191800</v>
+      </c>
+      <c r="H7" s="8">
+        <v>90000</v>
+      </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="8">
+        <v>214200</v>
+      </c>
+      <c r="K7" s="8">
+        <v>8000</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8">
+        <v>125500</v>
+      </c>
       <c r="O7" s="71"/>
       <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
+      <c r="Q7" s="71">
+        <v>231000</v>
+      </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>347600</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13542,7 +13582,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1004700</v>
+        <v>1431900</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1407,7 +1407,7 @@
     <t>1.9.2018</t>
   </si>
   <si>
-    <t>Ko Nway Oo-979500(3/9/18)</t>
+    <t>Ko Nway Oo-1200000(3/9/18)</t>
   </si>
 </sst>
 </file>
@@ -12588,7 +12588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12602,7 +12602,7 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
@@ -12941,25 +12941,45 @@
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="8">
+        <v>250500</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1012000</v>
+      </c>
+      <c r="D8" s="8">
+        <v>185500</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11650</v>
+      </c>
+      <c r="F8" s="8">
+        <v>173850</v>
+      </c>
+      <c r="G8" s="8">
+        <v>777500</v>
+      </c>
+      <c r="H8" s="8">
+        <v>49000</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="8">
+        <v>773600</v>
+      </c>
+      <c r="K8" s="8">
+        <v>10000</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="71"/>
       <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="Q8" s="71">
+        <v>130000</v>
+      </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>175050</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12967,24 +12987,44 @@
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="8">
+        <v>1368700</v>
+      </c>
+      <c r="D9" s="8">
+        <v>135000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18500</v>
+      </c>
+      <c r="F9" s="8">
+        <v>116500</v>
+      </c>
+      <c r="G9" s="8">
+        <v>97200</v>
+      </c>
+      <c r="H9" s="8">
+        <v>186500</v>
+      </c>
+      <c r="I9" s="8">
+        <v>950000</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1516350</v>
+      </c>
+      <c r="K9" s="8">
+        <v>26000</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="71"/>
       <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="Q9" s="71">
+        <v>6200</v>
+      </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-296350</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12992,49 +13032,87 @@
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="8">
+        <v>347500</v>
+      </c>
+      <c r="D10" s="8">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>153000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>58000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>72500</v>
+      </c>
+      <c r="I10" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>220950</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="71"/>
       <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="Q10" s="71">
+        <v>15000</v>
+      </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-41450</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="8">
+        <v>130000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>665500</v>
+      </c>
+      <c r="D11" s="8">
+        <v>260500</v>
+      </c>
+      <c r="E11" s="8">
+        <v>29500</v>
+      </c>
+      <c r="F11" s="8">
+        <v>231000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>222000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>183000</v>
+      </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="8">
+        <v>216900</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4000</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="71"/>
       <c r="N11" s="71"/>
       <c r="O11" s="71"/>
       <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
+      <c r="Q11" s="71">
+        <v>244000</v>
+      </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13582,7 +13660,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1431900</v>
+        <v>1368750</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -1408,6 +1408,9 @@
   </si>
   <si>
     <t>Ko Nway Oo-1200000(3/9/18)</t>
+  </si>
+  <si>
+    <t>Ko Pyone Mg -400000 (10.9.2018)</t>
   </si>
 </sst>
 </file>
@@ -12587,8 +12590,8 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13119,50 +13122,90 @@
       <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="8">
+        <v>498000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>915500</v>
+      </c>
+      <c r="D12" s="8">
+        <v>263500</v>
+      </c>
+      <c r="E12" s="8">
+        <v>31150</v>
+      </c>
+      <c r="F12" s="8">
+        <v>232350</v>
+      </c>
+      <c r="G12" s="8">
+        <v>524500</v>
+      </c>
+      <c r="H12" s="8">
+        <v>127500</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="8">
+        <v>190600</v>
+      </c>
+      <c r="K12" s="8">
+        <v>54000</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="71"/>
       <c r="N12" s="71"/>
       <c r="O12" s="71"/>
       <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
+      <c r="Q12" s="71">
+        <v>481500</v>
+      </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>455050</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="8">
+        <v>384000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>738000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>51000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6500</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44500</v>
+      </c>
+      <c r="G13" s="8">
+        <v>457000</v>
+      </c>
+      <c r="H13" s="99">
+        <v>222000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8000</v>
+      </c>
+      <c r="J13" s="8">
+        <v>796200</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="71"/>
       <c r="N13" s="71"/>
       <c r="O13" s="71"/>
       <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
+      <c r="Q13" s="71">
+        <v>241000</v>
+      </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13660,7 +13703,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1368750</v>
+        <v>1864100</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13675,6 +13718,9 @@
       <c r="S35" s="108"/>
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
       <c r="Q36" s="92"/>
       <c r="R36" s="101"/>
       <c r="S36" s="92"/>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -1410,7 +1410,16 @@
     <t>Ko Nway Oo-1200000(3/9/18)</t>
   </si>
   <si>
-    <t>Ko Pyone Mg -400000 (10.9.2018)</t>
+    <t>Ko Nway Oo 100000(13.9.2018)</t>
+  </si>
+  <si>
+    <t>Ko Pyone Mg Mg -200000</t>
+  </si>
+  <si>
+    <t>Ko Pyone Mg Mg -20000</t>
+  </si>
+  <si>
+    <t>(14.9.2018)</t>
   </si>
 </sst>
 </file>
@@ -12591,7 +12600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12608,7 +12617,7 @@
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13213,24 +13222,50 @@
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="C14" s="8">
+        <v>704500</v>
+      </c>
+      <c r="D14" s="8">
+        <v>134500</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>120500</v>
+      </c>
+      <c r="G14" s="8">
+        <v>396500</v>
+      </c>
+      <c r="H14" s="99">
+        <v>123500</v>
+      </c>
+      <c r="I14" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>216000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>104000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>53000</v>
+      </c>
+      <c r="M14" s="71">
+        <v>5000</v>
+      </c>
+      <c r="N14" s="71">
+        <v>85000</v>
+      </c>
       <c r="O14" s="71"/>
       <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
+      <c r="Q14" s="71">
+        <v>43000</v>
+      </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13238,15 +13273,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="C15" s="8">
+        <v>661500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>163500</v>
+      </c>
+      <c r="E15" s="8">
+        <v>20650</v>
+      </c>
+      <c r="F15" s="8">
+        <v>142850</v>
+      </c>
+      <c r="G15" s="8">
+        <v>315000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>63000</v>
+      </c>
+      <c r="I15" s="8">
+        <v>120000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>374400</v>
+      </c>
+      <c r="K15" s="8">
+        <v>170000</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="71"/>
       <c r="N15" s="71"/>
@@ -13255,7 +13308,7 @@
       <c r="Q15" s="71"/>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-25750</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13263,24 +13316,44 @@
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="C16" s="8">
+        <v>273500</v>
+      </c>
+      <c r="D16" s="8">
+        <v>86000</v>
+      </c>
+      <c r="E16" s="8">
+        <v>12500</v>
+      </c>
+      <c r="F16" s="8">
+        <v>73500</v>
+      </c>
+      <c r="G16" s="8">
+        <v>57500</v>
+      </c>
+      <c r="H16" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I16" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>159700</v>
+      </c>
+      <c r="K16" s="8">
+        <v>15000</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
+      <c r="Q16" s="71">
+        <v>55000</v>
+      </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-29700</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13703,7 +13776,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1864100</v>
+        <v>1886650</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13719,19 +13792,27 @@
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="92"/>
       <c r="R36" s="101"/>
       <c r="S36" s="92"/>
     </row>
     <row r="37" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>134</v>
+      </c>
       <c r="Q37" s="92"/>
       <c r="S37" s="92"/>
     </row>
     <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
       <c r="Q38" s="92"/>
-      <c r="R38" s="101"/>
+      <c r="R38" s="101" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="92"/>

--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -1416,10 +1416,16 @@
     <t>Ko Pyone Mg Mg -200000</t>
   </si>
   <si>
-    <t>Ko Pyone Mg Mg -20000</t>
+    <t>Ko Pyone Mg Mg -300000 (18.9.2018)</t>
   </si>
   <si>
-    <t>(14.9.2018)</t>
+    <t>Ko Pyone Mg Mg -20000 (14.9.20108)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Ko Nway Oo -500000 (20.9.2018,Ko Pyone)</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,6 +2123,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,22 +2481,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -3732,22 +3740,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="110">
+      <c r="B1" s="112">
         <v>43132</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
     </row>
     <row r="2" spans="2:17" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -9364,12 +9372,12 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
       <c r="N33" s="86"/>
       <c r="O33" s="94">
         <v>1000000</v>
@@ -9391,22 +9399,22 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
       <c r="L35" s="86"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="111">
+      <c r="B36" s="113">
         <v>2496038</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
       <c r="L36" s="86"/>
       <c r="M36" s="86"/>
     </row>
@@ -12599,8 +12607,8 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12616,8 +12624,9 @@
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="16" width="9.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13360,25 +13369,49 @@
       <c r="A17" s="74">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1068000</v>
+      </c>
+      <c r="D17" s="8">
+        <v>371500</v>
+      </c>
+      <c r="E17" s="8">
+        <v>37300</v>
+      </c>
+      <c r="F17" s="8">
+        <v>334200</v>
+      </c>
+      <c r="G17" s="8">
+        <v>279500</v>
+      </c>
+      <c r="H17" s="8">
+        <v>237000</v>
+      </c>
+      <c r="I17" s="8">
+        <v>180000</v>
+      </c>
+      <c r="J17" s="8">
+        <v>143700</v>
+      </c>
+      <c r="K17" s="8">
+        <v>37000</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="N17" s="71">
+        <v>121000</v>
+      </c>
       <c r="O17" s="71"/>
       <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
+      <c r="Q17" s="71">
+        <v>69500</v>
+      </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>412600</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13386,24 +13419,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="C18" s="8">
+        <v>970500</v>
+      </c>
+      <c r="D18" s="8">
+        <v>139500</v>
+      </c>
+      <c r="E18" s="8">
+        <v>22600</v>
+      </c>
+      <c r="F18" s="8">
+        <v>116900</v>
+      </c>
+      <c r="G18" s="8">
+        <v>567000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>264000</v>
+      </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="8">
+        <v>222350</v>
+      </c>
+      <c r="K18" s="8">
+        <v>27000</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
+      <c r="N18" s="71">
+        <v>611000</v>
+      </c>
       <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
+      <c r="P18" s="71">
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="71">
+        <v>39500</v>
+      </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-49250</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13411,74 +13466,138 @@
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="C19" s="8">
+        <v>373000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>43500</v>
+      </c>
+      <c r="E19" s="8">
+        <v>8500</v>
+      </c>
+      <c r="F19" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>252000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>77500</v>
+      </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="8">
+        <v>338400</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3000</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="71"/>
       <c r="N19" s="71"/>
       <c r="O19" s="71"/>
       <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
+      <c r="Q19" s="71">
+        <v>328500</v>
+      </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-331900</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="8">
+        <v>50000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1202500</v>
+      </c>
+      <c r="D20" s="8">
+        <v>61000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>12000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>49000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>278000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>163500</v>
+      </c>
+      <c r="I20" s="8">
+        <v>700000</v>
+      </c>
+      <c r="J20" s="8">
+        <v>450300</v>
+      </c>
+      <c r="K20" s="8">
+        <v>30000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>260000</v>
+      </c>
       <c r="M20" s="71"/>
       <c r="N20" s="71"/>
       <c r="O20" s="71"/>
       <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="Q20" s="71">
+        <v>186000</v>
+      </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="8">
+        <v>1030000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>254000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>81000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10500</v>
+      </c>
+      <c r="F21" s="8">
+        <v>70500</v>
+      </c>
+      <c r="G21" s="8">
+        <v>62000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>31000</v>
+      </c>
+      <c r="I21" s="8">
+        <v>80000</v>
+      </c>
+      <c r="J21" s="8">
+        <v>555200</v>
+      </c>
+      <c r="K21" s="8">
+        <v>26000</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="71"/>
       <c r="N21" s="71"/>
       <c r="O21" s="71"/>
       <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="Q21" s="71">
+        <v>56500</v>
+      </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>575800</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13776,7 +13895,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>1886650</v>
+        <v>2771100</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13791,34 +13910,41 @@
       <c r="S35" s="108"/>
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P36" t="s">
+      <c r="P36" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="101"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="110"/>
       <c r="S36" s="92"/>
     </row>
     <row r="37" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P37" t="s">
+      <c r="P37" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="Q37" s="92"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
       <c r="S37" s="92"/>
     </row>
     <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" t="s">
+      <c r="P38" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q39" s="92"/>
-      <c r="R39" s="102"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="110"/>
     </row>
     <row r="40" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="109" t="s">
+        <v>139</v>
+      </c>
       <c r="Q40" s="92"/>
       <c r="R40" s="104"/>
     </row>
@@ -13834,5 +13960,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monthly List -GB 3-2018 (Autosaved).xlsx
+++ b/Monthly List -GB 3-2018 (Autosaved).xlsx
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>Ko Nway Oo -500000 (20.9.2018,Ko Pyone)</t>
+  </si>
+  <si>
+    <t>Ko Nway Oo -50000 (25.9.2018)</t>
   </si>
 </sst>
 </file>
@@ -9448,7 +9451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,7 +10977,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -12607,8 +12610,8 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12626,8 +12629,8 @@
     <col min="12" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13605,16 +13608,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="C22" s="8">
+        <v>161000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>78000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7500</v>
+      </c>
+      <c r="F22" s="8">
+        <v>70500</v>
+      </c>
+      <c r="G22" s="8">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="8">
+        <v>75000</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8">
+        <v>208200</v>
+      </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8">
+        <v>4000</v>
+      </c>
       <c r="M22" s="71"/>
       <c r="N22" s="71"/>
       <c r="O22" s="71"/>
@@ -13622,7 +13641,7 @@
       <c r="Q22" s="71"/>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-121700</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13630,16 +13649,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="C23" s="8">
+        <v>971000</v>
+      </c>
+      <c r="D23" s="8">
+        <v>511000</v>
+      </c>
+      <c r="E23" s="8">
+        <v>26950</v>
+      </c>
+      <c r="F23" s="8">
+        <v>484050</v>
+      </c>
+      <c r="G23" s="8">
+        <v>297500</v>
+      </c>
+      <c r="H23" s="8">
+        <v>162500</v>
+      </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="J23" s="8">
+        <v>471300</v>
+      </c>
+      <c r="K23" s="8">
+        <v>24500</v>
+      </c>
+      <c r="L23" s="8">
+        <v>44000</v>
+      </c>
       <c r="M23" s="71"/>
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
@@ -13647,7 +13684,7 @@
       <c r="Q23" s="71"/>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-52850</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13655,65 +13692,127 @@
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="C24" s="8">
+        <v>617500</v>
+      </c>
+      <c r="D24" s="8">
+        <v>239000</v>
+      </c>
+      <c r="E24" s="8">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="8">
+        <v>231800</v>
+      </c>
+      <c r="G24" s="8">
+        <v>188500</v>
+      </c>
+      <c r="H24" s="8">
+        <v>130000</v>
+      </c>
+      <c r="I24" s="8">
+        <v>60000</v>
+      </c>
+      <c r="J24" s="8">
+        <v>261000</v>
+      </c>
+      <c r="K24" s="8">
+        <v>166000</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="N24" s="71">
+        <v>10000</v>
+      </c>
       <c r="O24" s="71"/>
       <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="Q24" s="71">
+        <v>90000</v>
+      </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-141300</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="8">
+        <v>150000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>682000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>117000</v>
+      </c>
+      <c r="E25" s="8">
+        <v>14700</v>
+      </c>
+      <c r="F25" s="8">
+        <v>102300</v>
+      </c>
+      <c r="G25" s="8">
+        <v>469000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>96000</v>
+      </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="8">
+        <v>304800</v>
+      </c>
+      <c r="K25" s="8">
+        <v>8000</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="71"/>
       <c r="N25" s="71"/>
       <c r="O25" s="71"/>
       <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
+      <c r="Q25" s="71">
+        <v>265000</v>
+      </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>151900</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="8">
+        <v>797000</v>
+      </c>
+      <c r="D26" s="8">
+        <v>235500</v>
+      </c>
+      <c r="E26" s="8">
+        <v>46000</v>
+      </c>
+      <c r="F26" s="8">
+        <v>189500</v>
+      </c>
+      <c r="G26" s="8">
+        <v>346500</v>
+      </c>
+      <c r="H26" s="8">
+        <v>95000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>120000</v>
+      </c>
+      <c r="J26" s="8">
+        <v>411750</v>
+      </c>
+      <c r="K26" s="8">
+        <v>60000</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="71"/>
       <c r="N26" s="71"/>
@@ -13722,7 +13821,7 @@
       <c r="Q26" s="105"/>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140750</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13883,8 +13982,14 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="106"/>
+      <c r="H33" s="106">
+        <f>SUM(H2:H32)</f>
+        <v>3232000</v>
+      </c>
+      <c r="I33" s="106">
+        <f>SUM(I2:I32)</f>
+        <v>2569000</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -13895,7 +14000,7 @@
       <c r="Q33" s="72"/>
       <c r="R33" s="100">
         <f>SUM(R2:R32)</f>
-        <v>2771100</v>
+        <v>2747900</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,6 +14054,9 @@
       <c r="R40" s="104"/>
     </row>
     <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="109" t="s">
+        <v>140</v>
+      </c>
       <c r="Q41" s="92"/>
     </row>
     <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
